--- a/test/sample_fixedPhoneNumbers.xlsx
+++ b/test/sample_fixedPhoneNumbers.xlsx
@@ -7148,7 +7148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -7165,13 +7165,28 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -7180,7 +7195,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -7188,11 +7203,13 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18405,6 +18422,9 @@
       <c r="AY56" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="AZ56" s="3">
+        <v>2.115152782E10</v>
+      </c>
       <c r="BA56" s="2" t="s">
         <v>73</v>
       </c>
@@ -21160,7 +21180,7 @@
       <c r="AY70" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AZ70" s="3" t="s">
+      <c r="AZ70" s="4" t="s">
         <v>673</v>
       </c>
       <c r="BA70" s="2" t="s">
@@ -31404,7 +31424,7 @@
       <c r="AY122" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AZ122" s="4" t="s">
+      <c r="AZ122" s="5" t="s">
         <v>673</v>
       </c>
       <c r="BA122" s="2" t="s">
@@ -33571,7 +33591,7 @@
       <c r="AY133" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AZ133" s="4" t="s">
+      <c r="AZ133" s="5" t="s">
         <v>673</v>
       </c>
       <c r="BA133" s="2" t="s">
@@ -35541,7 +35561,7 @@
       <c r="AY143" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AZ143" s="4" t="s">
+      <c r="AZ143" s="5" t="s">
         <v>673</v>
       </c>
       <c r="BA143" s="2" t="s">
@@ -37951,7 +37971,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" ht="15.0" customHeight="1">
       <c r="A156" s="1" t="s">
         <v>66</v>
       </c>
@@ -38299,6 +38319,9 @@
       <c r="AY157" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="AZ157" s="3">
+        <v>1.115152782E10</v>
+      </c>
       <c r="BA157" s="2" t="s">
         <v>73</v>
       </c>
@@ -38887,6 +38910,9 @@
       <c r="AY160" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="AZ160" s="3">
+        <v>1.115152782E10</v>
+      </c>
       <c r="BA160" s="2" t="s">
         <v>73</v>
       </c>
@@ -39869,6 +39895,9 @@
       <c r="AY165" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="AZ165" s="3">
+        <v>1.115152782E10</v>
+      </c>
       <c r="BA165" s="2" t="s">
         <v>73</v>
       </c>
@@ -40851,6 +40880,9 @@
       <c r="AY170" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="AZ170" s="6">
+        <v>1.115152782E10</v>
+      </c>
       <c r="BA170" s="2" t="s">
         <v>73</v>
       </c>
@@ -42621,6 +42653,9 @@
       <c r="AY179" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="AZ179" s="3">
+        <v>1.115152782E10</v>
+      </c>
       <c r="BA179" s="2" t="s">
         <v>73</v>
       </c>
@@ -43012,6 +43047,9 @@
       <c r="AY181" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="AZ181" s="3">
+        <v>1.115152782E10</v>
+      </c>
       <c r="BA181" s="2" t="s">
         <v>73</v>
       </c>
@@ -69407,7 +69445,7 @@
       <c r="AY315" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AZ315" s="4" t="s">
+      <c r="AZ315" s="5" t="s">
         <v>673</v>
       </c>
       <c r="BA315" s="2" t="s">
@@ -72559,7 +72597,7 @@
       <c r="AY331" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AZ331" s="4" t="s">
+      <c r="AZ331" s="5" t="s">
         <v>673</v>
       </c>
       <c r="BA331" s="2" t="s">
@@ -75513,6 +75551,9 @@
       </c>
       <c r="AY346" s="2" t="s">
         <v>73</v>
+      </c>
+      <c r="AZ346" s="3">
+        <v>1.115152782E10</v>
       </c>
       <c r="BA346" s="2" t="s">
         <v>73</v>
